--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\開発演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D58FBD-C925-4A13-B705-079258ABB30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D38F9E-F830-4B40-82E3-8B7720276825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="useres" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="murmurs" sheetId="4" r:id="rId3"/>
     <sheet name="eyecatches" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>useres</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eyecatches</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -301,10 +297,6 @@
   </si>
   <si>
     <t>murmurs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eyecatch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -338,6 +330,10 @@
     <rPh sb="25" eb="26">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,7 +792,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -874,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -889,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -904,7 +900,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1174,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1275,7 +1271,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table useres (</v>
+        <v>create table users (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1316,10 +1312,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1693,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1832,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1893,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -1919,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -2285,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2363,13 +2359,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2379,7 +2375,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2394,7 +2390,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
@@ -2422,7 +2418,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D38F9E-F830-4B40-82E3-8B7720276825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76EC0EC-7979-400E-85D7-F6D3B9F05084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -319,13 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>now_timestamp</t>
-  </si>
-  <si>
-    <t>now_timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>valueに「CURRENT_TIMESTAMP」入れる</t>
     <rPh sb="25" eb="26">
       <t>イ</t>
@@ -334,6 +327,10 @@
   </si>
   <si>
     <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -870,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -1170,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1312,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -1327,7 +1324,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>now_timestamp timestamp ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1690,7 +1687,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1828,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>48</v>
@@ -1848,7 +1845,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>now_timestamp timestamp ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C971E9F2-503D-4426-A037-06E5104BCB3D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2362,7 +2359,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -2375,11 +2372,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>now_timestamp timestamp ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76EC0EC-7979-400E-85D7-F6D3B9F05084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EBAD0-A70C-43C2-9AD8-7E5C3DA20C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -241,9 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムスタンプ（登録）</t>
-  </si>
-  <si>
     <t>ユーザ名、パスワード</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -309,20 +306,6 @@
   </si>
   <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムスタンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>valueに「CURRENT_TIMESTAMP」入れる</t>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -331,6 +314,24 @@
   </si>
   <si>
     <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプ（登録）</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプ（更新）</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_at</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -864,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -882,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -894,10 +895,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1168,12 +1169,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B13" sqref="B13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
@@ -1186,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1228,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1279,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1306,15 +1307,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1324,7 +1327,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v>user varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1332,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -1352,7 +1355,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>pw varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1360,45 +1363,53 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>pw varchar (10)</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1687,12 +1698,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
@@ -1747,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1798,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1825,15 +1836,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1841,11 +1854,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v>user varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,29 +1866,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>tag varchar ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,15 +1892,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1901,7 +1912,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>tag varchar ,</v>
+        <v>murmur varchar (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1909,17 +1920,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -1929,25 +1938,33 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>murmur varchar (200)</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2218,12 +2235,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
@@ -2236,7 +2253,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2278,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2329,7 +2346,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -2356,13 +2373,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2372,11 +2389,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v>tag varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2384,27 +2401,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>tag varchar ,</v>
+        <v>message varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2412,17 +2429,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -2432,25 +2447,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>message varchar (50)</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26EBAD0-A70C-43C2-9AD8-7E5C3DA20C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F86A7-C2F7-45CE-8848-E696FAADAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -241,17 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名、パスワード</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイキャッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在時刻を自動的に入れてくれるカラム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,16 +261,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕事、友だち、家族、恋愛、自分、その他の6つ</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トモ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -332,6 +311,96 @@
   </si>
   <si>
     <t>update_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの選択によってtrue/falseを入力する</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まめぇまめぇ</t>
+  </si>
+  <si>
+    <t>まめぇまめぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリ製造</t>
+  </si>
+  <si>
+    <t>Webアプリ製造</t>
+    <rPh sb="6" eb="8">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴情報</t>
+    <rPh sb="0" eb="2">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイキャッチ情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚痴情報</t>
+    <rPh sb="0" eb="4">
+      <t>グチジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事、友だち、家族、恋愛、自分、その他の6つ</t>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の名前はらむだよ！　よろしく！</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -790,7 +859,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -811,7 +880,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +894,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,13 +908,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -865,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -880,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -895,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1169,7 +1246,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H14"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1187,14 +1264,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1285,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,23 +1299,29 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1280,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1310,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1338,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -1363,13 +1450,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1379,7 +1466,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1391,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1697,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1716,14 +1803,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1824,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1747,23 +1838,29 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1809,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1839,10 +1936,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1869,22 +1966,28 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>tag varchar ,</v>
+        <v>tag varchar (4),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,10 +1998,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1923,36 +2026,42 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v>check boolean (2),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1964,25 +2073,33 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2235,7 +2352,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2247,20 +2364,22 @@
     <col min="6" max="6" width="9.7265625" customWidth="1"/>
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.36328125" customWidth="1"/>
+    <col min="10" max="10" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2391,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2284,23 +2405,29 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2346,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -2376,24 +2503,26 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>tag varchar ,</v>
+        <v>tag varchar (4),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2404,10 +2533,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -2417,7 +2546,9 @@
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2429,13 +2560,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2455,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F86A7-C2F7-45CE-8848-E696FAADAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED31B79-B60B-4BA1-B421-3D902069FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21720" yWindow="1670" windowWidth="14010" windowHeight="8630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="murmurs" sheetId="4" r:id="rId3"/>
     <sheet name="eyecatches" sheetId="5" r:id="rId4"/>
+    <sheet name="ログイン回数" sheetId="6" r:id="rId5"/>
+    <sheet name="ゲーム回数" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="64">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -322,16 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックボックスの選択によってtrue/falseを入力する</t>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まめぇまめぇ</t>
   </si>
   <si>
@@ -400,6 +392,43 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの選択によってtrue/falseを入力する。一覧から愚痴を削除した際、ゲームで愚痴を削除した際にfalseとなり画面に表示されなくなる</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -881,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -895,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -942,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>44</v>
@@ -957,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
@@ -972,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
@@ -1246,7 +1275,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1272,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1300,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1403,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1414,7 +1443,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>user varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1784,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1798,12 +1827,12 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.453125" customWidth="1"/>
+    <col min="10" max="10" width="74.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1811,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1825,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1839,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1942,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1955,7 +1984,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>user varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1972,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1980,14 +2009,14 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>tag varchar (4),</v>
+        <v>tag varchar (6),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2004,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2015,7 +2044,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>murmur varchar (200),</v>
+        <v>murmur varchar (400),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2029,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -2043,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2351,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C971E9F2-503D-4426-A037-06E5104BCB3D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2370,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2378,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2392,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2406,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2509,7 +2538,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2517,12 +2546,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>tag varchar (4),</v>
+        <v>tag varchar (6),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2539,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2547,12 +2576,12 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>message varchar (50),</v>
+        <v>message varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2886,4 +2915,1082 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBDE6BF-B096-4494-B51A-6EF74D15E8B7}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user varchar (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pw varchar (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346CED36-92A1-49EB-84A9-8D9F6DA7117A}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user varchar (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pw varchar (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED31B79-B60B-4BA1-B421-3D902069FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFEB4D0-E0B8-4143-8A50-40081753E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="1670" windowWidth="14010" windowHeight="8630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="murmurs" sheetId="4" r:id="rId3"/>
     <sheet name="eyecatches" sheetId="5" r:id="rId4"/>
-    <sheet name="ログイン回数" sheetId="6" r:id="rId5"/>
-    <sheet name="ゲーム回数" sheetId="7" r:id="rId6"/>
+    <sheet name="logincounts" sheetId="6" r:id="rId5"/>
+    <sheet name="gamecounts" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -429,6 +429,48 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logincounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gamecounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン履歴情報</t>
+  </si>
+  <si>
+    <t>ログイン履歴情報</t>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム履歴情報</t>
+  </si>
+  <si>
+    <t>ゲーム履歴情報</t>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -888,7 +930,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -946,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,18 +1057,30 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1813,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2922,7 +2976,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2940,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2976,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2990,13 +3044,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3032,7 +3086,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table logincounts (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3098,27 +3152,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pw varchar (10),</v>
+        <v>count int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3460,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346CED36-92A1-49EB-84A9-8D9F6DA7117A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3479,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3515,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3529,13 +3583,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3571,7 +3625,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table gamecounts (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3637,27 +3691,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pw varchar (10),</v>
+        <v>count int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFEB4D0-E0B8-4143-8A50-40081753E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F0758-A222-4FDE-BAAE-E41B0A665B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="73">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -230,28 +230,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>idpwテーブルとつなげ、ログイン状態の人のデータのみ表示する</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在時刻を自動的に入れてくれるカラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pw</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -454,14 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム履歴情報</t>
   </si>
   <si>
@@ -472,6 +443,38 @@
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルとつなげ、ログイン状態の人のデータのみ表示する</t>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,7 +933,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -952,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -966,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1013,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -1028,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -1043,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1058,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -1073,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -1328,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1342,12 +1345,12 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1355,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1369,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1383,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1397,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1447,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1469,7 +1472,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1480,10 +1483,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1497,7 +1500,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (20),</v>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1508,10 +1511,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -1525,7 +1528,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pw varchar (10),</v>
+        <v>user_pw varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1533,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1549,7 +1552,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1561,13 +1564,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1868,7 +1871,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1881,12 +1884,12 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.1796875" customWidth="1"/>
+    <col min="10" max="10" width="134.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1894,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1908,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1922,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1936,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1989,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -2016,13 +2019,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2034,11 +2037,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (20),</v>
+        <v>user_id int (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2049,10 +2052,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -2063,10 +2066,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2081,10 +2084,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>400</v>
@@ -2106,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -2126,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2138,13 +2141,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2164,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2453,7 +2456,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2461,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2475,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2489,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2503,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2556,7 +2559,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -2586,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -2600,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2616,10 +2619,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2630,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -2643,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2669,13 +2672,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2976,7 +2979,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:I12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2989,12 +2992,12 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3002,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3016,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3030,7 +3033,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3044,7 +3047,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3097,7 +3100,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -3124,13 +3127,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3144,7 +3147,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>user_id int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3152,13 +3155,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3166,13 +3169,13 @@
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>count int ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3180,13 +3183,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3195,38 +3198,28 @@
         <v>27</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3514,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346CED36-92A1-49EB-84A9-8D9F6DA7117A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3528,12 +3521,12 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3541,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3555,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3569,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3583,7 +3576,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3636,7 +3629,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -3663,13 +3656,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3683,7 +3676,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user varchar (10),</v>
+        <v>user_id int (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3691,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3705,13 +3698,13 @@
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>count int ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3719,13 +3712,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3734,38 +3727,28 @@
         <v>27</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F0758-A222-4FDE-BAAE-E41B0A665B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8A13E-17FF-4AAB-B5C4-25E96793BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まめぇまめぇ</t>
   </si>
   <si>
@@ -475,6 +471,10 @@
   </si>
   <si>
     <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>murmur_check</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -1061,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -1076,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1350,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1386,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1483,7 +1483,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1511,7 +1511,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1889,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1925,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2019,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2066,10 +2066,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2112,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -2129,11 +2129,11 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>check boolean (2),</v>
+        <v>murmur_check boolean (2),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2456,7 +2456,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2492,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2603,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2633,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -2997,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3033,7 +3033,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3047,7 +3047,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3127,10 +3127,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -3526,7 +3526,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3548,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3562,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3576,7 +3576,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3656,10 +3656,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>

--- a/doc/04_DB定義書_BtwoB.xlsx
+++ b/doc/04_DB定義書_BtwoB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8A13E-17FF-4AAB-B5C4-25E96793BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A9BC5-87CE-499A-8EB4-3217C849BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -475,6 +475,17 @@
   </si>
   <si>
     <t>murmur_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>murmur_delete</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -558,13 +569,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D48843-F9A9-4173-A477-2AF6B0ED5711}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2157,7 @@
         <v>59</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>murmur_check boolean (2),</v>
       </c>
     </row>
@@ -2140,25 +2165,26 @@
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -2167,10 +2193,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -2183,27 +2209,35 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">update_at timestamp </v>
+      <c r="L16" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,7 +2254,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
